--- a/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-4.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-4.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42689" uniqueCount="905">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-4.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-4.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42689" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64038" uniqueCount="905">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31334,7 +31334,7 @@
         <v>90</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>90</v>
@@ -31364,7 +31364,7 @@
         <v>90</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>90</v>
@@ -31379,7 +31379,7 @@
         <v>90</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>90</v>
@@ -31403,7 +31403,7 @@
         <v>90</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="AD6" s="5" t="s">
         <v>90</v>
@@ -31438,13 +31438,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>90</v>
@@ -31453,16 +31453,16 @@
         <v>90</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>90</v>
@@ -31474,7 +31474,7 @@
         <v>90</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>90</v>
@@ -31498,19 +31498,19 @@
         <v>90</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="X7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="AA7" s="5" t="s">
         <v>90</v>
@@ -31528,7 +31528,7 @@
         <v>90</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="AG7" s="5" t="s">
         <v>90</v>
@@ -31540,10 +31540,10 @@
         <v>90</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="AL7" s="5" t="s">
         <v>90</v>
@@ -32039,22 +32039,22 @@
         <v>90</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>90</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>90</v>
@@ -32063,7 +32063,7 @@
         <v>90</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>90</v>
@@ -32078,7 +32078,7 @@
         <v>90</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>90</v>
@@ -32087,7 +32087,7 @@
         <v>90</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="Z12" s="5" t="s">
         <v>90</v>
@@ -32099,7 +32099,7 @@
         <v>90</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="AD12" s="5" t="s">
         <v>90</v>
@@ -32111,10 +32111,10 @@
         <v>90</v>
       </c>
       <c r="AG12" s="5" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="AI12" s="5" t="s">
         <v>90</v>
@@ -32123,7 +32123,7 @@
         <v>90</v>
       </c>
       <c r="AK12" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="AL12" s="5" t="s">
         <v>90</v>
@@ -32161,13 +32161,13 @@
         <v>90</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>90</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>90</v>
@@ -32176,7 +32176,7 @@
         <v>90</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>90</v>
@@ -32191,7 +32191,7 @@
         <v>90</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="V13" s="5" t="s">
         <v>90</v>
@@ -32405,7 +32405,7 @@
         <v>90</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>90</v>
@@ -32759,10 +32759,10 @@
         <v>90</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="S18" s="5" t="s">
         <v>90</v>
@@ -32771,7 +32771,7 @@
         <v>90</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>90</v>
@@ -32807,10 +32807,10 @@
         <v>90</v>
       </c>
       <c r="AG18" s="5" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="AH18" s="5" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="AI18" s="5" t="s">
         <v>90</v>
@@ -32955,7 +32955,7 @@
         <v>90</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>90</v>
@@ -32964,7 +32964,7 @@
         <v>90</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>90</v>
@@ -32973,7 +32973,7 @@
         <v>90</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>90</v>
@@ -32988,7 +32988,7 @@
         <v>90</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>90</v>
@@ -32997,13 +32997,13 @@
         <v>90</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>90</v>
@@ -33021,19 +33021,19 @@
         <v>90</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="AB20" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="AD20" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="AF20" s="5" t="s">
         <v>90</v>
@@ -33045,7 +33045,7 @@
         <v>90</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="AJ20" s="5" t="s">
         <v>90</v>
@@ -33874,16 +33874,16 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>90</v>
@@ -33892,13 +33892,13 @@
         <v>90</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>90</v>
@@ -33910,7 +33910,7 @@
         <v>90</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>90</v>
@@ -33919,13 +33919,13 @@
         <v>90</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="T28" s="5" t="s">
         <v>90</v>
@@ -33934,25 +33934,25 @@
         <v>90</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AC28" s="5" t="s">
         <v>90</v>
@@ -33961,25 +33961,25 @@
         <v>90</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="AL28" s="5" t="s">
         <v>90</v>
@@ -34109,13 +34109,13 @@
         <v>90</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>90</v>
@@ -34187,10 +34187,10 @@
         <v>90</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="AD30" s="5" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AE30" s="5" t="s">
         <v>90</v>
@@ -34205,7 +34205,7 @@
         <v>90</v>
       </c>
       <c r="AI30" s="5" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="AJ30" s="5" t="s">
         <v>90</v>
@@ -35142,7 +35142,7 @@
         <v>90</v>
       </c>
       <c r="AL38" s="5" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
@@ -35150,115 +35150,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
@@ -35266,115 +35266,115 @@
         <v>87</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -35382,115 +35382,115 @@
         <v>88</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>113</v>
+        <v>255</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>113</v>
+        <v>286</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>113</v>
+        <v>332</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>113</v>
+        <v>375</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>113</v>
+        <v>412</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>113</v>
+        <v>447</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>113</v>
+        <v>488</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>113</v>
+        <v>527</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>113</v>
+        <v>555</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>113</v>
+        <v>582</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>113</v>
+        <v>596</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>113</v>
+        <v>625</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>113</v>
+        <v>639</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>113</v>
+        <v>661</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>113</v>
+        <v>697</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>113</v>
+        <v>725</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>113</v>
+        <v>757</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>113</v>
+        <v>792</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>113</v>
+        <v>823</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>113</v>
+        <v>852</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>113</v>
+        <v>885</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42">
